--- a/data/Технологій авіаційних двигунів ВІДОМІСТЬ ДОРУЧЕНЬ - 2020 весна денна.xlsx
+++ b/data/Технологій авіаційних двигунів ВІДОМІСТЬ ДОРУЧЕНЬ - 2020 весна денна.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="9735" yWindow="555" windowWidth="17010" windowHeight="11760"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="12600" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$I$72</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -167,9 +167,6 @@
     <t>МС</t>
   </si>
   <si>
-    <t>Шило Г.М.</t>
-  </si>
-  <si>
     <t>залік</t>
   </si>
   <si>
@@ -201,9 +198,6 @@
   </si>
   <si>
     <t>Лазарєва Ольга Олександрівна</t>
-  </si>
-  <si>
-    <t>Ткач Дар'я Володимірівна</t>
   </si>
   <si>
     <t>Двірник Ярослав Вікторович</t>
@@ -341,12 +335,18 @@
   <si>
     <t>15а, МС</t>
   </si>
+  <si>
+    <t>Шило Галина Миколаївна</t>
+  </si>
+  <si>
+    <t>Ткач Дар'я Володимирівна</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -475,6 +475,13 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -525,7 +532,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -627,6 +634,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -902,7 +912,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -915,8 +925,8 @@
   </sheetPr>
   <dimension ref="A1:M72"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A50" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="K65" sqref="K65"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B52" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1005,7 +1015,7 @@
     </row>
     <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B8" s="31"/>
       <c r="C8" s="31"/>
@@ -1029,7 +1039,7 @@
     </row>
     <row r="10" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B10" s="33"/>
       <c r="C10" s="33"/>
@@ -1043,7 +1053,7 @@
     <row r="11" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C11" s="32"/>
       <c r="D11" s="32"/>
@@ -1130,7 +1140,7 @@
         <v>18</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D15" s="24" t="s">
         <v>43</v>
@@ -1142,13 +1152,13 @@
         <v>2</v>
       </c>
       <c r="G15" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="H15" s="24" t="s">
-        <v>49</v>
-      </c>
       <c r="I15" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
@@ -1160,10 +1170,10 @@
         <v>18</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E16" s="24">
         <v>14</v>
@@ -1172,10 +1182,10 @@
         <v>1</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I16" s="24">
         <v>12</v>
@@ -1190,10 +1200,10 @@
         <v>18</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E17" s="24">
         <v>14</v>
@@ -1202,10 +1212,10 @@
         <v>1</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I17" s="24">
         <v>12</v>
@@ -1220,7 +1230,7 @@
         <v>19</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D18" s="24" t="s">
         <v>43</v>
@@ -1232,13 +1242,13 @@
         <v>1</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I18" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
@@ -1250,10 +1260,10 @@
         <v>19</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E19" s="24">
         <v>14</v>
@@ -1262,10 +1272,10 @@
         <v>1</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H19" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I19" s="24">
         <v>12</v>
@@ -1280,10 +1290,10 @@
         <v>19</v>
       </c>
       <c r="C20" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="24" t="s">
         <v>67</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>69</v>
       </c>
       <c r="E20" s="24">
         <v>14</v>
@@ -1292,10 +1302,10 @@
         <v>1</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H20" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I20" s="24">
         <v>12</v>
@@ -1310,10 +1320,10 @@
         <v>19</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E21" s="24">
         <v>14</v>
@@ -1322,10 +1332,10 @@
         <v>1</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H21" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I21" s="24">
         <v>12</v>
@@ -1340,10 +1350,10 @@
         <v>19</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E22" s="24">
         <v>14</v>
@@ -1352,10 +1362,10 @@
         <v>1</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H22" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I22" s="24">
         <v>12</v>
@@ -1370,7 +1380,7 @@
         <v>20</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D23" s="24" t="s">
         <v>43</v>
@@ -1382,10 +1392,10 @@
         <v>2</v>
       </c>
       <c r="G23" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="H23" s="24" t="s">
         <v>51</v>
-      </c>
-      <c r="H23" s="24" t="s">
-        <v>52</v>
       </c>
       <c r="I23" s="24" t="s">
         <v>46</v>
@@ -1400,10 +1410,10 @@
         <v>20</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E24" s="24">
         <v>14</v>
@@ -1412,10 +1422,10 @@
         <v>1</v>
       </c>
       <c r="G24" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="H24" s="24" t="s">
         <v>51</v>
-      </c>
-      <c r="H24" s="24" t="s">
-        <v>52</v>
       </c>
       <c r="I24" s="24" t="s">
         <v>46</v>
@@ -1430,7 +1440,7 @@
         <v>21</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D25" s="24" t="s">
         <v>43</v>
@@ -1442,13 +1452,13 @@
         <v>2</v>
       </c>
       <c r="G25" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H25" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I25" s="24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1460,10 +1470,10 @@
         <v>21</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E26" s="24">
         <v>14</v>
@@ -1472,13 +1482,13 @@
         <v>1</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H26" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I26" s="24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="63" x14ac:dyDescent="0.25">
@@ -1490,7 +1500,7 @@
         <v>22</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D27" s="24" t="s">
         <v>43</v>
@@ -1502,10 +1512,10 @@
         <v>1</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="H27" s="24" t="s">
         <v>47</v>
+      </c>
+      <c r="H27" s="36" t="s">
+        <v>80</v>
       </c>
       <c r="I27" s="24">
         <v>18</v>
@@ -1520,10 +1530,10 @@
         <v>22</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E28" s="24">
         <v>28</v>
@@ -1532,10 +1542,10 @@
         <v>2</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="H28" s="24" t="s">
         <v>47</v>
+      </c>
+      <c r="H28" s="36" t="s">
+        <v>80</v>
       </c>
       <c r="I28" s="24">
         <v>18</v>
@@ -1550,10 +1560,10 @@
         <v>22</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E29" s="24">
         <v>28</v>
@@ -1562,10 +1572,10 @@
         <v>2</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="H29" s="24" t="s">
         <v>47</v>
+      </c>
+      <c r="H29" s="36" t="s">
+        <v>80</v>
       </c>
       <c r="I29" s="24">
         <v>18</v>
@@ -1592,10 +1602,10 @@
         <v>2</v>
       </c>
       <c r="G30" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="H30" s="24" t="s">
         <v>51</v>
-      </c>
-      <c r="H30" s="24" t="s">
-        <v>52</v>
       </c>
       <c r="I30" s="24" t="s">
         <v>46</v>
@@ -1610,10 +1620,10 @@
         <v>23</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E31" s="24">
         <v>14</v>
@@ -1622,10 +1632,10 @@
         <v>1</v>
       </c>
       <c r="G31" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="H31" s="24" t="s">
         <v>51</v>
-      </c>
-      <c r="H31" s="24" t="s">
-        <v>52</v>
       </c>
       <c r="I31" s="24" t="s">
         <v>46</v>
@@ -1640,7 +1650,7 @@
         <v>24</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D32" s="24" t="s">
         <v>43</v>
@@ -1652,13 +1662,13 @@
         <v>2</v>
       </c>
       <c r="G32" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H32" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I32" s="24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
@@ -1670,10 +1680,10 @@
         <v>24</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E33" s="24">
         <v>14</v>
@@ -1682,13 +1692,13 @@
         <v>1</v>
       </c>
       <c r="G33" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H33" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I33" s="24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
@@ -1700,7 +1710,7 @@
         <v>25</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D34" s="24" t="s">
         <v>43</v>
@@ -1712,10 +1722,10 @@
         <v>1</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H34" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I34" s="24">
         <v>19</v>
@@ -1730,10 +1740,10 @@
         <v>25</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E35" s="24">
         <v>14</v>
@@ -1742,10 +1752,10 @@
         <v>1</v>
       </c>
       <c r="G35" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I35" s="24">
         <v>19</v>
@@ -1760,7 +1770,7 @@
         <v>26</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D36" s="24" t="s">
         <v>44</v>
@@ -1772,10 +1782,10 @@
         <v>2</v>
       </c>
       <c r="G36" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H36" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I36" s="24" t="s">
         <v>46</v>
@@ -1790,10 +1800,10 @@
         <v>26</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E37" s="24">
         <v>10</v>
@@ -1802,13 +1812,13 @@
         <v>1</v>
       </c>
       <c r="G37" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H37" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I37" s="24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
@@ -1820,10 +1830,10 @@
         <v>26</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E38" s="24">
         <v>10</v>
@@ -1832,13 +1842,13 @@
         <v>1</v>
       </c>
       <c r="G38" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H38" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I38" s="24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
@@ -1850,7 +1860,7 @@
         <v>27</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D39" s="24" t="s">
         <v>44</v>
@@ -1862,13 +1872,13 @@
         <v>2</v>
       </c>
       <c r="G39" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H39" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I39" s="24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
@@ -1880,10 +1890,10 @@
         <v>27</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E40" s="24">
         <v>10</v>
@@ -1892,13 +1902,13 @@
         <v>1</v>
       </c>
       <c r="G40" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H40" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I40" s="24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
@@ -1910,7 +1920,7 @@
         <v>28</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D41" s="24" t="s">
         <v>44</v>
@@ -1922,10 +1932,10 @@
         <v>2</v>
       </c>
       <c r="G41" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H41" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I41" s="24">
         <v>18</v>
@@ -1940,10 +1950,10 @@
         <v>28</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E42" s="24">
         <v>10</v>
@@ -1952,10 +1962,10 @@
         <v>1</v>
       </c>
       <c r="G42" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H42" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I42" s="24">
         <v>18</v>
@@ -1970,7 +1980,7 @@
         <v>29</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D43" s="24" t="s">
         <v>43</v>
@@ -1982,13 +1992,13 @@
         <v>2</v>
       </c>
       <c r="G43" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H43" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I43" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
@@ -2000,10 +2010,10 @@
         <v>29</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D44" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E44" s="24">
         <v>10</v>
@@ -2012,13 +2022,13 @@
         <v>1</v>
       </c>
       <c r="G44" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H44" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I44" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
@@ -2030,10 +2040,10 @@
         <v>29</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E45" s="24">
         <v>10</v>
@@ -2042,10 +2052,10 @@
         <v>1</v>
       </c>
       <c r="G45" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I45" s="24" t="s">
         <v>45</v>
@@ -2060,7 +2070,7 @@
         <v>30</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D46" s="24" t="s">
         <v>43</v>
@@ -2072,10 +2082,10 @@
         <v>2</v>
       </c>
       <c r="G46" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H46" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I46" s="24">
         <v>19</v>
@@ -2090,10 +2100,10 @@
         <v>30</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D47" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E47" s="24">
         <v>20</v>
@@ -2102,10 +2112,10 @@
         <v>2</v>
       </c>
       <c r="G47" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H47" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I47" s="24">
         <v>19</v>
@@ -2120,7 +2130,7 @@
         <v>31</v>
       </c>
       <c r="C48" s="21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D48" s="24" t="s">
         <v>43</v>
@@ -2132,10 +2142,10 @@
         <v>2</v>
       </c>
       <c r="G48" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H48" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I48" s="24">
         <v>19</v>
@@ -2150,10 +2160,10 @@
         <v>31</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D49" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E49" s="24">
         <v>10</v>
@@ -2162,10 +2172,10 @@
         <v>1</v>
       </c>
       <c r="G49" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H49" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I49" s="24">
         <v>19</v>
@@ -2180,7 +2190,7 @@
         <v>32</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D50" s="24" t="s">
         <v>43</v>
@@ -2192,13 +2202,13 @@
         <v>2</v>
       </c>
       <c r="G50" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H50" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I50" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
@@ -2210,10 +2220,10 @@
         <v>32</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D51" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E51" s="24">
         <v>20</v>
@@ -2222,13 +2232,13 @@
         <v>2</v>
       </c>
       <c r="G51" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H51" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I51" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
@@ -2240,7 +2250,7 @@
         <v>33</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D52" s="24" t="s">
         <v>43</v>
@@ -2252,10 +2262,10 @@
         <v>2</v>
       </c>
       <c r="G52" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H52" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I52" s="24" t="s">
         <v>46</v>
@@ -2270,10 +2280,10 @@
         <v>33</v>
       </c>
       <c r="C53" s="21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D53" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E53" s="24">
         <v>14</v>
@@ -2282,10 +2292,10 @@
         <v>1</v>
       </c>
       <c r="G53" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="H53" s="24" t="s">
-        <v>59</v>
+        <v>50</v>
+      </c>
+      <c r="H53" s="36" t="s">
+        <v>81</v>
       </c>
       <c r="I53" s="24">
         <v>18</v>
@@ -2300,7 +2310,7 @@
         <v>34</v>
       </c>
       <c r="C54" s="21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D54" s="24" t="s">
         <v>43</v>
@@ -2312,10 +2322,10 @@
         <v>3</v>
       </c>
       <c r="G54" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H54" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I54" s="24" t="s">
         <v>46</v>
@@ -2330,10 +2340,10 @@
         <v>34</v>
       </c>
       <c r="C55" s="21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D55" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E55" s="24">
         <v>14</v>
@@ -2342,10 +2352,10 @@
         <v>1</v>
       </c>
       <c r="G55" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="H55" s="24" t="s">
-        <v>59</v>
+        <v>50</v>
+      </c>
+      <c r="H55" s="36" t="s">
+        <v>81</v>
       </c>
       <c r="I55" s="24">
         <v>12</v>
@@ -2372,10 +2382,10 @@
         <v>2</v>
       </c>
       <c r="G56" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H56" s="24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I56" s="24">
         <v>18</v>
@@ -2393,7 +2403,7 @@
         <v>40</v>
       </c>
       <c r="D57" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E57" s="24">
         <v>30</v>
@@ -2402,10 +2412,10 @@
         <v>2</v>
       </c>
       <c r="G57" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H57" s="24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I57" s="24">
         <v>18</v>
@@ -2432,10 +2442,10 @@
         <v>1</v>
       </c>
       <c r="G58" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H58" s="24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I58" s="24">
         <v>18</v>
@@ -2453,7 +2463,7 @@
         <v>41</v>
       </c>
       <c r="D59" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E59" s="24">
         <v>14</v>
@@ -2462,10 +2472,10 @@
         <v>1</v>
       </c>
       <c r="G59" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H59" s="24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I59" s="24">
         <v>18</v>
@@ -2492,10 +2502,10 @@
         <v>2</v>
       </c>
       <c r="G60" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H60" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I60" s="24" t="s">
         <v>46</v>
@@ -2513,7 +2523,7 @@
         <v>41</v>
       </c>
       <c r="D61" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E61" s="24">
         <v>14</v>
@@ -2522,10 +2532,10 @@
         <v>1</v>
       </c>
       <c r="G61" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="H61" s="24" t="s">
         <v>51</v>
-      </c>
-      <c r="H61" s="24" t="s">
-        <v>52</v>
       </c>
       <c r="I61" s="24" t="s">
         <v>46</v>
@@ -2540,7 +2550,7 @@
         <v>38</v>
       </c>
       <c r="C62" s="21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D62" s="24" t="s">
         <v>43</v>
@@ -2552,10 +2562,10 @@
         <v>3</v>
       </c>
       <c r="G62" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H62" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I62" s="24">
         <v>19</v>
@@ -2570,10 +2580,10 @@
         <v>38</v>
       </c>
       <c r="C63" s="21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D63" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E63" s="24">
         <v>20</v>
@@ -2582,10 +2592,10 @@
         <v>2</v>
       </c>
       <c r="G63" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H63" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I63" s="24">
         <v>12</v>
@@ -2600,7 +2610,7 @@
         <v>39</v>
       </c>
       <c r="C64" s="21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D64" s="24" t="s">
         <v>43</v>
@@ -2612,13 +2622,13 @@
         <v>2</v>
       </c>
       <c r="G64" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H64" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I64" s="24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.25">
@@ -2630,10 +2640,10 @@
         <v>39</v>
       </c>
       <c r="C65" s="21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D65" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E65" s="24">
         <v>28</v>
@@ -2642,13 +2652,13 @@
         <v>2</v>
       </c>
       <c r="G65" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H65" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I65" s="24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68" spans="1:9" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -2706,6 +2716,6 @@
     <mergeCell ref="A71:I71"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="65" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="68" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/Технологій авіаційних двигунів ВІДОМІСТЬ ДОРУЧЕНЬ - 2020 весна денна.xlsx
+++ b/data/Технологій авіаційних двигунів ВІДОМІСТЬ ДОРУЧЕНЬ - 2020 весна денна.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="12600" windowHeight="12390"/>
+    <workbookView xWindow="12585" yWindow="-15" windowWidth="12630" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$I$72</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$J$72</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="82">
   <si>
     <t>МІНІСТЕРСТВО ОСВІТИ І НАУКИ УКРАЇНИ</t>
   </si>
@@ -483,7 +483,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -499,6 +499,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,7 +538,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -608,6 +614,15 @@
     <xf numFmtId="1" fontId="14" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -635,7 +650,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -923,10 +944,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M72"/>
+  <dimension ref="A1:N72"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B52" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="H60" sqref="H60"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -937,48 +958,50 @@
     <col min="4" max="4" width="13.85546875" style="1" customWidth="1"/>
     <col min="5" max="6" width="17" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.5703125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="8" max="9" width="22.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5703125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I1" s="14" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="10"/>
       <c r="K1" s="10"/>
       <c r="L1" s="10"/>
       <c r="M1" s="10"/>
-    </row>
-    <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="N1" s="10"/>
+    </row>
+    <row r="2" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-    </row>
-    <row r="3" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.4">
-      <c r="A4" s="29" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+    </row>
+    <row r="3" spans="1:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.4">
+      <c r="A4" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-    </row>
-    <row r="5" spans="1:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+    </row>
+    <row r="5" spans="1:14" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -988,21 +1011,23 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-    </row>
-    <row r="7" spans="1:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+    </row>
+    <row r="7" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1011,22 +1036,24 @@
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
+      <c r="I7" s="28"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-    </row>
-    <row r="9" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+    </row>
+    <row r="9" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1035,35 +1062,38 @@
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
+      <c r="I9" s="28"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-    </row>
-    <row r="11" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+    </row>
+    <row r="11" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-    </row>
-    <row r="12" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+    </row>
+    <row r="12" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -1072,9 +1102,10 @@
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:13" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I12" s="29"/>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="1:14" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>4</v>
       </c>
@@ -1102,8 +1133,11 @@
       <c r="I13" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J13" s="39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>1</v>
       </c>
@@ -1131,8 +1165,11 @@
       <c r="I14" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="63" x14ac:dyDescent="0.25">
+      <c r="J14" s="40">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A15" s="24">
         <v>1</v>
       </c>
@@ -1160,8 +1197,9 @@
       <c r="I15" s="24" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J15" s="41"/>
+    </row>
+    <row r="16" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="24">
         <f>1+A15</f>
         <v>2</v>
@@ -1190,8 +1228,9 @@
       <c r="I16" s="24">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J16" s="41"/>
+    </row>
+    <row r="17" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="24">
         <f t="shared" ref="A17:A65" si="0">1+A16</f>
         <v>3</v>
@@ -1220,8 +1259,9 @@
       <c r="I17" s="24">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="J17" s="41"/>
+    </row>
+    <row r="18" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1250,8 +1290,9 @@
       <c r="I18" s="24" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J18" s="41"/>
+    </row>
+    <row r="19" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="24">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1280,8 +1321,9 @@
       <c r="I19" s="24">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J19" s="41"/>
+    </row>
+    <row r="20" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="24">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1310,8 +1352,9 @@
       <c r="I20" s="24">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J20" s="41"/>
+    </row>
+    <row r="21" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="24">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1340,8 +1383,9 @@
       <c r="I21" s="24">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J21" s="41"/>
+    </row>
+    <row r="22" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="24">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1370,8 +1414,9 @@
       <c r="I22" s="24">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J22" s="41"/>
+    </row>
+    <row r="23" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A23" s="24">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1400,8 +1445,9 @@
       <c r="I23" s="24" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J23" s="41"/>
+    </row>
+    <row r="24" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A24" s="24">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1430,8 +1476,9 @@
       <c r="I24" s="24" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J24" s="41"/>
+    </row>
+    <row r="25" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="24">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1460,8 +1507,9 @@
       <c r="I25" s="24" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J25" s="41"/>
+    </row>
+    <row r="26" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="24">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1490,8 +1538,9 @@
       <c r="I26" s="24" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="J26" s="41"/>
+    </row>
+    <row r="27" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A27" s="24">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1514,14 +1563,15 @@
       <c r="G27" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="H27" s="36" t="s">
+      <c r="H27" s="27" t="s">
         <v>80</v>
       </c>
       <c r="I27" s="24">
         <v>18</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="J27" s="41"/>
+    </row>
+    <row r="28" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A28" s="24">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1544,14 +1594,15 @@
       <c r="G28" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="H28" s="36" t="s">
+      <c r="H28" s="27" t="s">
         <v>80</v>
       </c>
       <c r="I28" s="24">
         <v>18</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="J28" s="41"/>
+    </row>
+    <row r="29" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A29" s="24">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1574,14 +1625,15 @@
       <c r="G29" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="H29" s="36" t="s">
+      <c r="H29" s="27" t="s">
         <v>80</v>
       </c>
       <c r="I29" s="24">
         <v>18</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J29" s="41"/>
+    </row>
+    <row r="30" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" s="24">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1610,8 +1662,9 @@
       <c r="I30" s="24" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J30" s="41"/>
+    </row>
+    <row r="31" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A31" s="24">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1640,8 +1693,9 @@
       <c r="I31" s="24" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J31" s="41"/>
+    </row>
+    <row r="32" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A32" s="24">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1670,8 +1724,9 @@
       <c r="I32" s="24" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J32" s="41"/>
+    </row>
+    <row r="33" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="24">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1700,8 +1755,9 @@
       <c r="I33" s="24" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J33" s="41"/>
+    </row>
+    <row r="34" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" s="24">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1730,8 +1786,9 @@
       <c r="I34" s="24">
         <v>19</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J34" s="41"/>
+    </row>
+    <row r="35" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A35" s="24">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1760,8 +1817,9 @@
       <c r="I35" s="24">
         <v>19</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="J35" s="41"/>
+    </row>
+    <row r="36" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A36" s="24">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1790,8 +1848,9 @@
       <c r="I36" s="24" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J36" s="41"/>
+    </row>
+    <row r="37" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A37" s="24">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1820,8 +1879,9 @@
       <c r="I37" s="24" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J37" s="41"/>
+    </row>
+    <row r="38" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A38" s="24">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1850,8 +1910,9 @@
       <c r="I38" s="24" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J38" s="41"/>
+    </row>
+    <row r="39" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A39" s="24">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1880,8 +1941,9 @@
       <c r="I39" s="24" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J39" s="41"/>
+    </row>
+    <row r="40" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A40" s="24">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1910,8 +1972,9 @@
       <c r="I40" s="24" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J40" s="41"/>
+    </row>
+    <row r="41" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A41" s="24">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1940,8 +2003,9 @@
       <c r="I41" s="24">
         <v>18</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J41" s="41"/>
+    </row>
+    <row r="42" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A42" s="24">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1970,8 +2034,9 @@
       <c r="I42" s="24">
         <v>18</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="J42" s="41"/>
+    </row>
+    <row r="43" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A43" s="24">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2000,8 +2065,9 @@
       <c r="I43" s="24" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="J43" s="41"/>
+    </row>
+    <row r="44" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A44" s="24">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2030,8 +2096,9 @@
       <c r="I44" s="24" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="J44" s="41"/>
+    </row>
+    <row r="45" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A45" s="24">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2060,8 +2127,9 @@
       <c r="I45" s="24" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J45" s="41"/>
+    </row>
+    <row r="46" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="24">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2090,8 +2158,9 @@
       <c r="I46" s="24">
         <v>19</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J46" s="41"/>
+    </row>
+    <row r="47" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="24">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -2120,8 +2189,9 @@
       <c r="I47" s="24">
         <v>19</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J47" s="41"/>
+    </row>
+    <row r="48" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="24">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2150,8 +2220,9 @@
       <c r="I48" s="24">
         <v>19</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J48" s="41"/>
+    </row>
+    <row r="49" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="24">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2180,8 +2251,9 @@
       <c r="I49" s="24">
         <v>19</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J49" s="41"/>
+    </row>
+    <row r="50" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A50" s="24">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2210,8 +2282,9 @@
       <c r="I50" s="24" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J50" s="41"/>
+    </row>
+    <row r="51" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A51" s="24">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -2240,8 +2313,9 @@
       <c r="I51" s="24" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J51" s="41"/>
+    </row>
+    <row r="52" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A52" s="24">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -2270,8 +2344,9 @@
       <c r="I52" s="24" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J52" s="41"/>
+    </row>
+    <row r="53" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A53" s="24">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -2294,14 +2369,15 @@
       <c r="G53" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="H53" s="36" t="s">
+      <c r="H53" s="27" t="s">
         <v>81</v>
       </c>
       <c r="I53" s="24">
         <v>18</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J53" s="41"/>
+    </row>
+    <row r="54" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A54" s="24">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2330,8 +2406,9 @@
       <c r="I54" s="24" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J54" s="41"/>
+    </row>
+    <row r="55" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A55" s="24">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2354,14 +2431,15 @@
       <c r="G55" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="H55" s="36" t="s">
+      <c r="H55" s="27" t="s">
         <v>81</v>
       </c>
       <c r="I55" s="24">
         <v>12</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J55" s="41"/>
+    </row>
+    <row r="56" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A56" s="24">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2390,8 +2468,9 @@
       <c r="I56" s="24">
         <v>18</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J56" s="41"/>
+    </row>
+    <row r="57" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A57" s="24">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2420,8 +2499,9 @@
       <c r="I57" s="24">
         <v>18</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J57" s="41"/>
+    </row>
+    <row r="58" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A58" s="24">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -2450,8 +2530,9 @@
       <c r="I58" s="24">
         <v>18</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J58" s="41"/>
+    </row>
+    <row r="59" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A59" s="24">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -2480,8 +2561,9 @@
       <c r="I59" s="24">
         <v>18</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J59" s="41"/>
+    </row>
+    <row r="60" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A60" s="24">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -2510,8 +2592,9 @@
       <c r="I60" s="24" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J60" s="41"/>
+    </row>
+    <row r="61" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="24">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -2540,8 +2623,9 @@
       <c r="I61" s="24" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J61" s="41"/>
+    </row>
+    <row r="62" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A62" s="24">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -2570,8 +2654,9 @@
       <c r="I62" s="24">
         <v>19</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J62" s="41"/>
+    </row>
+    <row r="63" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A63" s="24">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -2600,8 +2685,9 @@
       <c r="I63" s="24">
         <v>12</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="J63" s="41"/>
+    </row>
+    <row r="64" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A64" s="24">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -2630,8 +2716,9 @@
       <c r="I64" s="24" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J64" s="41"/>
+    </row>
+    <row r="65" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="24">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -2660,62 +2747,67 @@
       <c r="I65" s="24" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J65" s="41"/>
+    </row>
+    <row r="68" spans="1:10" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H68" s="34" t="s">
+      <c r="H68" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="I68" s="34"/>
-    </row>
-    <row r="69" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H69" s="35" t="s">
+      <c r="I68" s="37"/>
+      <c r="J68" s="37"/>
+    </row>
+    <row r="69" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H69" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="I69" s="35"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="27" t="s">
+      <c r="I69" s="38"/>
+      <c r="J69" s="38"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B71" s="27"/>
-      <c r="C71" s="27"/>
-      <c r="D71" s="27"/>
-      <c r="E71" s="27"/>
-      <c r="F71" s="27"/>
-      <c r="G71" s="27"/>
-      <c r="H71" s="27"/>
-      <c r="I71" s="27"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="27" t="s">
+      <c r="B71" s="30"/>
+      <c r="C71" s="30"/>
+      <c r="D71" s="30"/>
+      <c r="E71" s="30"/>
+      <c r="F71" s="30"/>
+      <c r="G71" s="30"/>
+      <c r="H71" s="30"/>
+      <c r="I71" s="30"/>
+      <c r="J71" s="30"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B72" s="27"/>
-      <c r="C72" s="27"/>
-      <c r="D72" s="27"/>
-      <c r="E72" s="27"/>
-      <c r="F72" s="27"/>
-      <c r="G72" s="27"/>
-      <c r="H72" s="27"/>
-      <c r="I72" s="27"/>
+      <c r="B72" s="30"/>
+      <c r="C72" s="30"/>
+      <c r="D72" s="30"/>
+      <c r="E72" s="30"/>
+      <c r="F72" s="30"/>
+      <c r="G72" s="30"/>
+      <c r="H72" s="30"/>
+      <c r="I72" s="30"/>
+      <c r="J72" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A72:I72"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="A71:I71"/>
+    <mergeCell ref="A72:J72"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="H68:J68"/>
+    <mergeCell ref="H69:J69"/>
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="A71:J71"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="68" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="59" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/Технологій авіаційних двигунів ВІДОМІСТЬ ДОРУЧЕНЬ - 2020 весна денна.xlsx
+++ b/data/Технологій авіаційних двигунів ВІДОМІСТЬ ДОРУЧЕНЬ - 2020 весна денна.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="83">
   <si>
     <t>МІНІСТЕРСТВО ОСВІТИ І НАУКИ УКРАЇНИ</t>
   </si>
@@ -340,6 +340,9 @@
   </si>
   <si>
     <t>Ткач Дар'я Володимирівна</t>
+  </si>
+  <si>
+    <t>Пропозиції щодо аудиторій</t>
   </si>
 </sst>
 </file>
@@ -623,6 +626,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -649,15 +661,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -933,7 +936,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -947,7 +950,7 @@
   <dimension ref="A1:N72"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="I57" sqref="I57"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -973,33 +976,33 @@
       <c r="N1" s="10"/>
     </row>
     <row r="2" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
     </row>
     <row r="3" spans="1:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.4">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
     </row>
     <row r="5" spans="1:14" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
@@ -1014,18 +1017,18 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
     </row>
     <row r="7" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
@@ -1040,18 +1043,18 @@
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
     </row>
     <row r="9" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
@@ -1066,32 +1069,32 @@
       <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
     </row>
     <row r="11" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
     </row>
     <row r="12" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
@@ -1131,9 +1134,9 @@
         <v>17</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="J13" s="30" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1165,7 +1168,7 @@
       <c r="I14" s="8">
         <v>9</v>
       </c>
-      <c r="J14" s="40">
+      <c r="J14" s="31">
         <v>10</v>
       </c>
     </row>
@@ -1197,7 +1200,7 @@
       <c r="I15" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="J15" s="41"/>
+      <c r="J15" s="32"/>
     </row>
     <row r="16" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="24">
@@ -1228,7 +1231,7 @@
       <c r="I16" s="24">
         <v>12</v>
       </c>
-      <c r="J16" s="41"/>
+      <c r="J16" s="32"/>
     </row>
     <row r="17" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="24">
@@ -1259,7 +1262,7 @@
       <c r="I17" s="24">
         <v>12</v>
       </c>
-      <c r="J17" s="41"/>
+      <c r="J17" s="32"/>
     </row>
     <row r="18" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
@@ -1290,7 +1293,7 @@
       <c r="I18" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="J18" s="41"/>
+      <c r="J18" s="32"/>
     </row>
     <row r="19" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="24">
@@ -1321,7 +1324,7 @@
       <c r="I19" s="24">
         <v>12</v>
       </c>
-      <c r="J19" s="41"/>
+      <c r="J19" s="32"/>
     </row>
     <row r="20" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="24">
@@ -1352,7 +1355,7 @@
       <c r="I20" s="24">
         <v>12</v>
       </c>
-      <c r="J20" s="41"/>
+      <c r="J20" s="32"/>
     </row>
     <row r="21" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="24">
@@ -1383,7 +1386,7 @@
       <c r="I21" s="24">
         <v>12</v>
       </c>
-      <c r="J21" s="41"/>
+      <c r="J21" s="32"/>
     </row>
     <row r="22" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="24">
@@ -1414,7 +1417,7 @@
       <c r="I22" s="24">
         <v>12</v>
       </c>
-      <c r="J22" s="41"/>
+      <c r="J22" s="32"/>
     </row>
     <row r="23" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A23" s="24">
@@ -1445,7 +1448,7 @@
       <c r="I23" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="J23" s="41"/>
+      <c r="J23" s="32"/>
     </row>
     <row r="24" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A24" s="24">
@@ -1476,7 +1479,7 @@
       <c r="I24" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="J24" s="41"/>
+      <c r="J24" s="32"/>
     </row>
     <row r="25" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="24">
@@ -1507,7 +1510,7 @@
       <c r="I25" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="J25" s="41"/>
+      <c r="J25" s="32"/>
     </row>
     <row r="26" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="24">
@@ -1538,7 +1541,7 @@
       <c r="I26" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="J26" s="41"/>
+      <c r="J26" s="32"/>
     </row>
     <row r="27" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A27" s="24">
@@ -1569,7 +1572,7 @@
       <c r="I27" s="24">
         <v>18</v>
       </c>
-      <c r="J27" s="41"/>
+      <c r="J27" s="32"/>
     </row>
     <row r="28" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A28" s="24">
@@ -1600,7 +1603,7 @@
       <c r="I28" s="24">
         <v>18</v>
       </c>
-      <c r="J28" s="41"/>
+      <c r="J28" s="32"/>
     </row>
     <row r="29" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A29" s="24">
@@ -1631,7 +1634,7 @@
       <c r="I29" s="24">
         <v>18</v>
       </c>
-      <c r="J29" s="41"/>
+      <c r="J29" s="32"/>
     </row>
     <row r="30" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" s="24">
@@ -1662,7 +1665,7 @@
       <c r="I30" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="J30" s="41"/>
+      <c r="J30" s="32"/>
     </row>
     <row r="31" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A31" s="24">
@@ -1693,7 +1696,7 @@
       <c r="I31" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="J31" s="41"/>
+      <c r="J31" s="32"/>
     </row>
     <row r="32" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A32" s="24">
@@ -1724,7 +1727,7 @@
       <c r="I32" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="J32" s="41"/>
+      <c r="J32" s="32"/>
     </row>
     <row r="33" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="24">
@@ -1755,7 +1758,7 @@
       <c r="I33" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="J33" s="41"/>
+      <c r="J33" s="32"/>
     </row>
     <row r="34" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" s="24">
@@ -1786,7 +1789,7 @@
       <c r="I34" s="24">
         <v>19</v>
       </c>
-      <c r="J34" s="41"/>
+      <c r="J34" s="32"/>
     </row>
     <row r="35" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A35" s="24">
@@ -1817,7 +1820,7 @@
       <c r="I35" s="24">
         <v>19</v>
       </c>
-      <c r="J35" s="41"/>
+      <c r="J35" s="32"/>
     </row>
     <row r="36" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A36" s="24">
@@ -1848,7 +1851,7 @@
       <c r="I36" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="J36" s="41"/>
+      <c r="J36" s="32"/>
     </row>
     <row r="37" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A37" s="24">
@@ -1879,7 +1882,7 @@
       <c r="I37" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="J37" s="41"/>
+      <c r="J37" s="32"/>
     </row>
     <row r="38" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A38" s="24">
@@ -1910,7 +1913,7 @@
       <c r="I38" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="J38" s="41"/>
+      <c r="J38" s="32"/>
     </row>
     <row r="39" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A39" s="24">
@@ -1941,7 +1944,7 @@
       <c r="I39" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="J39" s="41"/>
+      <c r="J39" s="32"/>
     </row>
     <row r="40" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A40" s="24">
@@ -1972,7 +1975,7 @@
       <c r="I40" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="J40" s="41"/>
+      <c r="J40" s="32"/>
     </row>
     <row r="41" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A41" s="24">
@@ -2003,7 +2006,7 @@
       <c r="I41" s="24">
         <v>18</v>
       </c>
-      <c r="J41" s="41"/>
+      <c r="J41" s="32"/>
     </row>
     <row r="42" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A42" s="24">
@@ -2034,7 +2037,7 @@
       <c r="I42" s="24">
         <v>18</v>
       </c>
-      <c r="J42" s="41"/>
+      <c r="J42" s="32"/>
     </row>
     <row r="43" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A43" s="24">
@@ -2065,7 +2068,7 @@
       <c r="I43" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="J43" s="41"/>
+      <c r="J43" s="32"/>
     </row>
     <row r="44" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A44" s="24">
@@ -2096,7 +2099,7 @@
       <c r="I44" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="J44" s="41"/>
+      <c r="J44" s="32"/>
     </row>
     <row r="45" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A45" s="24">
@@ -2127,7 +2130,7 @@
       <c r="I45" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="J45" s="41"/>
+      <c r="J45" s="32"/>
     </row>
     <row r="46" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="24">
@@ -2158,7 +2161,7 @@
       <c r="I46" s="24">
         <v>19</v>
       </c>
-      <c r="J46" s="41"/>
+      <c r="J46" s="32"/>
     </row>
     <row r="47" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="24">
@@ -2189,7 +2192,7 @@
       <c r="I47" s="24">
         <v>19</v>
       </c>
-      <c r="J47" s="41"/>
+      <c r="J47" s="32"/>
     </row>
     <row r="48" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="24">
@@ -2220,7 +2223,7 @@
       <c r="I48" s="24">
         <v>19</v>
       </c>
-      <c r="J48" s="41"/>
+      <c r="J48" s="32"/>
     </row>
     <row r="49" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="24">
@@ -2251,7 +2254,7 @@
       <c r="I49" s="24">
         <v>19</v>
       </c>
-      <c r="J49" s="41"/>
+      <c r="J49" s="32"/>
     </row>
     <row r="50" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A50" s="24">
@@ -2282,7 +2285,7 @@
       <c r="I50" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="J50" s="41"/>
+      <c r="J50" s="32"/>
     </row>
     <row r="51" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A51" s="24">
@@ -2313,7 +2316,7 @@
       <c r="I51" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="J51" s="41"/>
+      <c r="J51" s="32"/>
     </row>
     <row r="52" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A52" s="24">
@@ -2344,7 +2347,7 @@
       <c r="I52" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="J52" s="41"/>
+      <c r="J52" s="32"/>
     </row>
     <row r="53" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A53" s="24">
@@ -2375,7 +2378,7 @@
       <c r="I53" s="24">
         <v>18</v>
       </c>
-      <c r="J53" s="41"/>
+      <c r="J53" s="32"/>
     </row>
     <row r="54" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A54" s="24">
@@ -2406,7 +2409,7 @@
       <c r="I54" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="J54" s="41"/>
+      <c r="J54" s="32"/>
     </row>
     <row r="55" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A55" s="24">
@@ -2437,7 +2440,7 @@
       <c r="I55" s="24">
         <v>12</v>
       </c>
-      <c r="J55" s="41"/>
+      <c r="J55" s="32"/>
     </row>
     <row r="56" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A56" s="24">
@@ -2468,7 +2471,7 @@
       <c r="I56" s="24">
         <v>18</v>
       </c>
-      <c r="J56" s="41"/>
+      <c r="J56" s="32"/>
     </row>
     <row r="57" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A57" s="24">
@@ -2499,7 +2502,7 @@
       <c r="I57" s="24">
         <v>18</v>
       </c>
-      <c r="J57" s="41"/>
+      <c r="J57" s="32"/>
     </row>
     <row r="58" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A58" s="24">
@@ -2530,7 +2533,7 @@
       <c r="I58" s="24">
         <v>18</v>
       </c>
-      <c r="J58" s="41"/>
+      <c r="J58" s="32"/>
     </row>
     <row r="59" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A59" s="24">
@@ -2561,7 +2564,7 @@
       <c r="I59" s="24">
         <v>18</v>
       </c>
-      <c r="J59" s="41"/>
+      <c r="J59" s="32"/>
     </row>
     <row r="60" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A60" s="24">
@@ -2592,7 +2595,7 @@
       <c r="I60" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="J60" s="41"/>
+      <c r="J60" s="32"/>
     </row>
     <row r="61" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="24">
@@ -2623,7 +2626,7 @@
       <c r="I61" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="J61" s="41"/>
+      <c r="J61" s="32"/>
     </row>
     <row r="62" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A62" s="24">
@@ -2654,7 +2657,7 @@
       <c r="I62" s="24">
         <v>19</v>
       </c>
-      <c r="J62" s="41"/>
+      <c r="J62" s="32"/>
     </row>
     <row r="63" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A63" s="24">
@@ -2685,7 +2688,7 @@
       <c r="I63" s="24">
         <v>12</v>
       </c>
-      <c r="J63" s="41"/>
+      <c r="J63" s="32"/>
     </row>
     <row r="64" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A64" s="24">
@@ -2716,7 +2719,7 @@
       <c r="I64" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="J64" s="41"/>
+      <c r="J64" s="32"/>
     </row>
     <row r="65" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="24">
@@ -2747,52 +2750,52 @@
       <c r="I65" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="J65" s="41"/>
+      <c r="J65" s="32"/>
     </row>
     <row r="68" spans="1:10" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H68" s="37" t="s">
+      <c r="H68" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="I68" s="37"/>
-      <c r="J68" s="37"/>
+      <c r="I68" s="40"/>
+      <c r="J68" s="40"/>
     </row>
     <row r="69" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H69" s="38" t="s">
+      <c r="H69" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="I69" s="38"/>
-      <c r="J69" s="38"/>
+      <c r="I69" s="41"/>
+      <c r="J69" s="41"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="30" t="s">
+      <c r="A71" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B71" s="30"/>
-      <c r="C71" s="30"/>
-      <c r="D71" s="30"/>
-      <c r="E71" s="30"/>
-      <c r="F71" s="30"/>
-      <c r="G71" s="30"/>
-      <c r="H71" s="30"/>
-      <c r="I71" s="30"/>
-      <c r="J71" s="30"/>
+      <c r="B71" s="33"/>
+      <c r="C71" s="33"/>
+      <c r="D71" s="33"/>
+      <c r="E71" s="33"/>
+      <c r="F71" s="33"/>
+      <c r="G71" s="33"/>
+      <c r="H71" s="33"/>
+      <c r="I71" s="33"/>
+      <c r="J71" s="33"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="30" t="s">
+      <c r="A72" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B72" s="30"/>
-      <c r="C72" s="30"/>
-      <c r="D72" s="30"/>
-      <c r="E72" s="30"/>
-      <c r="F72" s="30"/>
-      <c r="G72" s="30"/>
-      <c r="H72" s="30"/>
-      <c r="I72" s="30"/>
-      <c r="J72" s="30"/>
+      <c r="B72" s="33"/>
+      <c r="C72" s="33"/>
+      <c r="D72" s="33"/>
+      <c r="E72" s="33"/>
+      <c r="F72" s="33"/>
+      <c r="G72" s="33"/>
+      <c r="H72" s="33"/>
+      <c r="I72" s="33"/>
+      <c r="J72" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="10">
